--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -279,14 +279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Equip_Sword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip_ElfHat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Desc_DriftingBottle</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -303,22 +295,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>普通的长剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Sword</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_ElfHat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Equip Successfully</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -486,6 +462,409 @@
   </si>
   <si>
     <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Take off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_EquipTakeOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备已脱下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip Taken Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Helmet_2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Helmet_2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Sword_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Sword_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Helmet_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Chest_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Cloak_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Ring_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲胄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Boots_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Helmet_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Chest_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Cloak_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Boots_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Ring_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Helmet_2_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Helmet_2_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair ribbon</t>
+  </si>
+  <si>
+    <t>Hair ribbon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoker</t>
+  </si>
+  <si>
+    <t>召唤师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Critical!</t>
+  </si>
+  <si>
+    <t>暴击!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>欢迎！我好像给了你一把剑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome! You just got a sword from me. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InfoBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Info board</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_1_2</t>
+  </si>
+  <si>
+    <t>Story_1_3</t>
+  </si>
+  <si>
+    <t>Story_1_4</t>
+  </si>
+  <si>
+    <t>Story_1_5</t>
+  </si>
+  <si>
+    <t>Story_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_2_2</t>
+  </si>
+  <si>
+    <t>Story_2_3</t>
+  </si>
+  <si>
+    <t>Story_2_4</t>
+  </si>
+  <si>
+    <t>Story_2_5</t>
+  </si>
+  <si>
+    <t>Story_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_3_2</t>
+  </si>
+  <si>
+    <t>Story_3_3</t>
+  </si>
+  <si>
+    <t>Story_3_4</t>
+  </si>
+  <si>
+    <t>Story_3_5</t>
+  </si>
+  <si>
+    <t>Story_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_4_2</t>
+  </si>
+  <si>
+    <t>Story_4_3</t>
+  </si>
+  <si>
+    <t>Story_4_4</t>
+  </si>
+  <si>
+    <t>Story_4_5</t>
+  </si>
+  <si>
+    <t>Story_5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story_5_2</t>
+  </si>
+  <si>
+    <t>Story_5_3</t>
+  </si>
+  <si>
+    <t>Story_5_4</t>
+  </si>
+  <si>
+    <t>Story_5_5</t>
+  </si>
+  <si>
+    <t>故事_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_2_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_3_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_3_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_4_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_4_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_5_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_5_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_5_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事_5_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryUpdated</t>
+  </si>
+  <si>
+    <t>Character arc updated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物故事已更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被誉为最强狩魔猎人的Geralt是《巫师》系列的主角，为了成为狩魔猎人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geralt is the main character of WITCHER. He is named as ' the Strongest Witcher'.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +872,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +893,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -536,11 +921,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -821,17 +1207,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="2" max="2" width="78.625" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
@@ -841,7 +1227,7 @@
     <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -874,7 +1260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -896,7 +1282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -907,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -918,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -929,7 +1315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -940,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -951,7 +1337,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -962,7 +1348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -973,7 +1359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -984,7 +1370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -995,7 +1381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1006,7 +1392,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1017,7 +1403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1028,7 +1414,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1039,301 +1425,818 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C43" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="C46" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>80</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="B56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B59" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B60" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C60" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" t="s">
+        <v>203</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" t="s">
+        <v>205</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>207</v>
+      </c>
+      <c r="C84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>186</v>
+      </c>
+      <c r="B87" t="s">
+        <v>210</v>
+      </c>
+      <c r="C87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>188</v>
+      </c>
+      <c r="B89" t="s">
+        <v>212</v>
+      </c>
+      <c r="C89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>190</v>
+      </c>
+      <c r="B91" t="s">
+        <v>214</v>
+      </c>
+      <c r="C91" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="291">
   <si>
     <t>ID</t>
   </si>
@@ -633,14 +633,6 @@
     <t>Welcome</t>
   </si>
   <si>
-    <t>欢迎！我好像给了你一把剑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome! You just got a sword from me. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,18 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BasicInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Story_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,6 +845,304 @@
   </si>
   <si>
     <t>Geralt is the main character of WITCHER. He is named as ' the Strongest Witcher'.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MerchantIntro</t>
+  </si>
+  <si>
+    <t>我有一些很稀有的收藏，你要不要看看?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I have a collection of goods. Wanna have a look?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我看一眼咯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes, let me have a look.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Byebye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bye bye.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LetMeLook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DontBeGreedy</t>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't be so greedy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做人不要那么贪婪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_MPPotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法药剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_MPPotion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not enough gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_NotEnoughGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_IronOre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_CopperOre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Wood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_IronOre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_CopperOre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Wood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铜矿石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屋外的摩尔丢了一把锁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mole outside the house lost a lock.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技艺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoleLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢迎！我好像给了你一把锁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome! You just got a lock from me. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谁能找到我丢失的银锁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Who could help me find silver lock?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThankYou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢谢你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpHim</t>
+  </si>
+  <si>
+    <t>DontHelp</t>
+  </si>
+  <si>
+    <t>关我什么事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我好像可以帮他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None of my business.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I can show you something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAmBear</t>
+  </si>
+  <si>
+    <t>我是一只熊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am a bear.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emm…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoleThanks</t>
+  </si>
+  <si>
+    <t>太感谢了，这把长剑就送给你了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you. Here is a sword for your kindness.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1482,761 +1760,1069 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>152</v>
+      <c r="A62" t="s">
+        <v>113</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="B65" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>161</v>
+        <v>266</v>
+      </c>
+      <c r="C65" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15">
-      <c r="A67" t="s">
-        <v>166</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C67" t="s">
-        <v>219</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" t="s">
-        <v>191</v>
+        <v>262</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="C68" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
       <c r="A69" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" t="s">
-        <v>192</v>
+        <v>161</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B77" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B79" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B83" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B85" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B86" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C87" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B90" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C91" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>210</v>
+      </c>
+      <c r="B94" t="s">
+        <v>212</v>
+      </c>
+      <c r="C94" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>217</v>
       </c>
-      <c r="C92" t="s">
-        <v>216</v>
+      <c r="B96" t="s">
+        <v>218</v>
+      </c>
+      <c r="C96" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>225</v>
+      </c>
+      <c r="B97" t="s">
+        <v>220</v>
+      </c>
+      <c r="C97" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>222</v>
+      </c>
+      <c r="B98" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>229</v>
+      </c>
+      <c r="B101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>231</v>
+      </c>
+      <c r="B102" t="s">
+        <v>232</v>
+      </c>
+      <c r="C102" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B105" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B106" t="s">
+        <v>253</v>
+      </c>
+      <c r="C106" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B107" t="s">
+        <v>249</v>
+      </c>
+      <c r="C107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B109" t="s">
+        <v>253</v>
+      </c>
+      <c r="C109" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B110" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B111" t="s">
+        <v>260</v>
+      </c>
+      <c r="C111" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B112" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B114" t="s">
+        <v>271</v>
+      </c>
+      <c r="C114" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>274</v>
+      </c>
+      <c r="B115" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>275</v>
+      </c>
+      <c r="B116" t="s">
+        <v>276</v>
+      </c>
+      <c r="C116" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" t="s">
+        <v>284</v>
+      </c>
+      <c r="C118" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>288</v>
+      </c>
+      <c r="B120" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="302">
   <si>
     <t>ID</t>
   </si>
@@ -1143,6 +1143,49 @@
   </si>
   <si>
     <t>Thank you. Here is a sword for your kindness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WannaFight</t>
+  </si>
+  <si>
+    <t>想找打吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wanna fight with me?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoFight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我要好好教训你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I will kick your ass.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DontFight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路过，大佬！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I love peace.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1485,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2825,6 +2868,50 @@
         <v>290</v>
       </c>
     </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>293</v>
+      </c>
+      <c r="B122" t="s">
+        <v>294</v>
+      </c>
+      <c r="C122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>296</v>
+      </c>
+      <c r="B123" t="s">
+        <v>297</v>
+      </c>
+      <c r="C123" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>299</v>
+      </c>
+      <c r="B124" t="s">
+        <v>300</v>
+      </c>
+      <c r="C124" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="308">
   <si>
     <t>ID</t>
   </si>
@@ -1186,6 +1186,29 @@
   </si>
   <si>
     <t>I love peace.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearArchive</t>
+  </si>
+  <si>
+    <t>清空存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear archive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArchiveCleared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archive cleared.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档已清空。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1528,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2912,6 +2935,28 @@
         <v>301</v>
       </c>
     </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>302</v>
+      </c>
+      <c r="B125" t="s">
+        <v>303</v>
+      </c>
+      <c r="C125" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" t="s">
+        <v>306</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="332">
   <si>
     <t>ID</t>
   </si>
@@ -1209,6 +1209,98 @@
   </si>
   <si>
     <t>存档已清空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InvalidAction</t>
+  </si>
+  <si>
+    <t>无效操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TurnEnded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turn ended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CantAction</t>
+  </si>
+  <si>
+    <t>本回合内无法再次行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can't take action this turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YourTurn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyTurn</t>
+  </si>
+  <si>
+    <t>Enemy's turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your turn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人的回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Victory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜利！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Victory!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defeat!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1551,7 +1643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
       <selection activeCell="C134" sqref="C134"/>
@@ -2957,6 +3049,94 @@
         <v>306</v>
       </c>
     </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>308</v>
+      </c>
+      <c r="B127" t="s">
+        <v>309</v>
+      </c>
+      <c r="C127" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>311</v>
+      </c>
+      <c r="B128" t="s">
+        <v>312</v>
+      </c>
+      <c r="C128" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>314</v>
+      </c>
+      <c r="B129" t="s">
+        <v>315</v>
+      </c>
+      <c r="C129" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>317</v>
+      </c>
+      <c r="B130" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>318</v>
+      </c>
+      <c r="B131" t="s">
+        <v>322</v>
+      </c>
+      <c r="C131" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>324</v>
+      </c>
+      <c r="B132" t="s">
+        <v>325</v>
+      </c>
+      <c r="C132" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>326</v>
+      </c>
+      <c r="B133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C133" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>329</v>
+      </c>
+      <c r="B134" t="s">
+        <v>330</v>
+      </c>
+      <c r="C134" t="s">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="349">
   <si>
     <t>ID</t>
   </si>
@@ -1301,6 +1301,74 @@
   </si>
   <si>
     <t>Defeat!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复50血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regenerate 50 HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狐狸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EchoIsMyFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo is my best friend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10002_JoinTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echo joined your team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10003_JoinTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10004_JoinTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timon joined your team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chloe joined your team</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁满加入了队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾可是我最好的朋友。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾可加入了队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌乐儿加入了队伍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1643,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2053,10 +2121,10 @@
         <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>332</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3135,6 +3203,61 @@
       </c>
       <c r="C134" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>334</v>
+      </c>
+      <c r="B135" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>337</v>
+      </c>
+      <c r="B136" t="s">
+        <v>346</v>
+      </c>
+      <c r="C136" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>339</v>
+      </c>
+      <c r="B137" t="s">
+        <v>347</v>
+      </c>
+      <c r="C137" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>341</v>
+      </c>
+      <c r="B138" t="s">
+        <v>345</v>
+      </c>
+      <c r="C138" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>342</v>
+      </c>
+      <c r="B139" t="s">
+        <v>348</v>
+      </c>
+      <c r="C139" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="355">
   <si>
     <t>ID</t>
   </si>
@@ -311,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这件装备不适合你的角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>It's for someone else</t>
   </si>
   <si>
@@ -1050,14 +1046,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欢迎！我好像给了你一把锁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome! You just got a lock from me. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谁能找到我丢失的银锁？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1324,14 +1312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EchoIsMyFriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echo is my best friend.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10002_JoinTeam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1360,15 +1340,57 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>艾可是我最好的朋友。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>艾可加入了队伍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>我是一只箱子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am a chest.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChloeIsMyFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>歌乐儿加入了队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歌乐儿是我最好的朋友。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chloe is my best friend.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这件装备不适合这个角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YouWantChloe</t>
+  </si>
+  <si>
+    <t>歌乐儿是我最好的朋友，你能帮我照顾她吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IWantChloe</t>
+  </si>
+  <si>
+    <t>I would love her like you do.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chloe is my best friend.  Could you take care of her?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我会像你爱她一样爱她。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1711,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1931,13 +1953,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1986,18 +2008,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>236</v>
-      </c>
-      <c r="C24" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>58</v>
@@ -2008,73 +2030,73 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
         <v>131</v>
-      </c>
-      <c r="C26" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
         <v>145</v>
-      </c>
-      <c r="C31" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>60</v>
@@ -2121,26 +2143,26 @@
         <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" t="s">
         <v>238</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C37" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>58</v>
@@ -2151,73 +2173,73 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
         <v>131</v>
-      </c>
-      <c r="C39" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>60</v>
@@ -2239,13 +2261,13 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" t="s">
         <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2253,1011 +2275,1033 @@
         <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" t="s">
         <v>74</v>
-      </c>
-      <c r="C48" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
         <v>76</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" t="s">
         <v>114</v>
-      </c>
-      <c r="C62" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>266</v>
+        <v>342</v>
       </c>
       <c r="C65" t="s">
-        <v>267</v>
+        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" t="s">
         <v>255</v>
-      </c>
-      <c r="C68" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C69" t="s">
         <v>213</v>
-      </c>
-      <c r="C69" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" t="s">
+        <v>211</v>
+      </c>
+      <c r="C94" t="s">
         <v>210</v>
-      </c>
-      <c r="B94" t="s">
-        <v>212</v>
-      </c>
-      <c r="C94" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" t="s">
         <v>215</v>
       </c>
-      <c r="B95" t="s">
-        <v>216</v>
-      </c>
       <c r="C95" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96" t="s">
         <v>217</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>218</v>
-      </c>
-      <c r="C96" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B97" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" t="s">
         <v>220</v>
-      </c>
-      <c r="C97" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>221</v>
+      </c>
+      <c r="B98" t="s">
         <v>222</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>223</v>
-      </c>
-      <c r="C98" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" t="s">
         <v>227</v>
       </c>
-      <c r="B100" t="s">
-        <v>228</v>
-      </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" t="s">
         <v>229</v>
       </c>
-      <c r="B101" t="s">
-        <v>230</v>
-      </c>
       <c r="C101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" t="s">
         <v>231</v>
       </c>
-      <c r="B102" t="s">
-        <v>232</v>
-      </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>240</v>
+      </c>
+      <c r="B103" t="s">
         <v>241</v>
       </c>
-      <c r="B103" t="s">
-        <v>242</v>
-      </c>
       <c r="C103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B104" t="s">
+        <v>248</v>
+      </c>
+      <c r="C104" t="s">
         <v>249</v>
-      </c>
-      <c r="C104" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B105" t="s">
+        <v>250</v>
+      </c>
+      <c r="C105" t="s">
         <v>251</v>
-      </c>
-      <c r="C105" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B106" t="s">
+        <v>252</v>
+      </c>
+      <c r="C106" t="s">
         <v>253</v>
-      </c>
-      <c r="C106" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B107" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" t="s">
         <v>249</v>
-      </c>
-      <c r="C107" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B108" t="s">
+        <v>250</v>
+      </c>
+      <c r="C108" t="s">
         <v>251</v>
-      </c>
-      <c r="C108" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B109" t="s">
+        <v>252</v>
+      </c>
+      <c r="C109" t="s">
         <v>253</v>
-      </c>
-      <c r="C109" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B110" t="s">
         <v>257</v>
       </c>
-      <c r="B110" t="s">
-        <v>258</v>
-      </c>
       <c r="C110" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B111" t="s">
         <v>259</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>260</v>
-      </c>
-      <c r="C111" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B112" t="s">
         <v>263</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>264</v>
-      </c>
-      <c r="C112" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B113" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>271</v>
+      </c>
+      <c r="B115" t="s">
         <v>274</v>
       </c>
-      <c r="B115" t="s">
-        <v>277</v>
-      </c>
       <c r="C115" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>272</v>
+      </c>
+      <c r="B116" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" t="s">
         <v>275</v>
-      </c>
-      <c r="B116" t="s">
-        <v>276</v>
-      </c>
-      <c r="C116" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B117" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C117" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B118" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C118" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B119" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C119" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B120" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C120" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B121" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B122" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C122" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B123" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C123" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B124" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C124" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B125" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C125" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B126" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C126" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B127" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C127" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B128" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C128" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B129" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C129" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
+        <v>314</v>
+      </c>
+      <c r="B130" t="s">
+        <v>318</v>
+      </c>
+      <c r="C130" t="s">
         <v>317</v>
-      </c>
-      <c r="B130" t="s">
-        <v>321</v>
-      </c>
-      <c r="C130" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B131" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B132" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C132" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C133" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B134" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C134" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B135" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C135" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B136" t="s">
         <v>346</v>
       </c>
       <c r="C136" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B137" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C137" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B138" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C138" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C139" t="s">
-        <v>344</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>349</v>
+      </c>
+      <c r="B140" t="s">
+        <v>350</v>
+      </c>
+      <c r="C140" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>351</v>
+      </c>
+      <c r="B141" t="s">
+        <v>354</v>
+      </c>
+      <c r="C141" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="358">
   <si>
     <t>ID</t>
   </si>
@@ -1391,6 +1391,18 @@
   </si>
   <si>
     <t>我会像你爱她一样爱她。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellSomething</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我想卖点什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I also love to sell things.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1733,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2822,485 +2834,496 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>222</v>
+        <v>356</v>
       </c>
       <c r="C98" t="s">
-        <v>223</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B101" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B102" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>230</v>
+      </c>
+      <c r="B103" t="s">
+        <v>231</v>
+      </c>
+      <c r="C103" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>240</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>241</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B104" t="s">
-        <v>248</v>
-      </c>
-      <c r="C104" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B107" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B109" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C109" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B110" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B111" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B112" t="s">
+        <v>259</v>
+      </c>
+      <c r="C112" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>263</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>270</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>265</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>268</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>271</v>
-      </c>
-      <c r="B115" t="s">
-        <v>274</v>
-      </c>
-      <c r="C115" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C116" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C117" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B118" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C118" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C119" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B120" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B121" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B122" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C122" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B123" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C123" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B124" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C124" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B125" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C125" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B126" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C126" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B127" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C127" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B128" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C128" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C129" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B130" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C131" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B132" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C132" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B133" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C133" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B134" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B135" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C135" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B136" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C136" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B137" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C137" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B138" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C138" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B139" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C139" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B140" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C140" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
+        <v>349</v>
+      </c>
+      <c r="B141" t="s">
+        <v>350</v>
+      </c>
+      <c r="C141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
         <v>351</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>354</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>352</v>
       </c>
     </row>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="361">
   <si>
     <t>ID</t>
   </si>
@@ -1403,6 +1403,18 @@
   </si>
   <si>
     <t>I also love to sell things.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1745,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3327,6 +3339,17 @@
         <v>352</v>
       </c>
     </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>358</v>
+      </c>
+      <c r="B143" t="s">
+        <v>359</v>
+      </c>
+      <c r="C143" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="370">
   <si>
     <t>ID</t>
   </si>
@@ -1415,6 +1415,41 @@
   </si>
   <si>
     <t>Sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultimate</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talent points:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentPoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoMoreTalentPoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋点不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No more talent points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋点:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1757,10 +1792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3350,6 +3385,39 @@
         <v>360</v>
       </c>
     </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>362</v>
+      </c>
+      <c r="B144" t="s">
+        <v>363</v>
+      </c>
+      <c r="C144" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>365</v>
+      </c>
+      <c r="B145" t="s">
+        <v>369</v>
+      </c>
+      <c r="C145" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146" t="s">
+        <v>367</v>
+      </c>
+      <c r="C146" t="s">
+        <v>368</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="619">
   <si>
     <t>ID</t>
   </si>
@@ -594,9 +594,6 @@
   </si>
   <si>
     <t>Hair ribbon</t>
-  </si>
-  <si>
-    <t>Hair ribbon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1450,6 +1447,910 @@
   </si>
   <si>
     <t>天赋点:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_10001_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_10001_1_2</t>
+  </si>
+  <si>
+    <t>talent_10001_1_3</t>
+  </si>
+  <si>
+    <t>talent_10001_1_4</t>
+  </si>
+  <si>
+    <t>talent_10001_1_5</t>
+  </si>
+  <si>
+    <t>talent_10001_1_6</t>
+  </si>
+  <si>
+    <t>talent_10001_1_7</t>
+  </si>
+  <si>
+    <t>talent_10001_1_8</t>
+  </si>
+  <si>
+    <t>talent_10001_1_9</t>
+  </si>
+  <si>
+    <t>talent_10001_1_10</t>
+  </si>
+  <si>
+    <t>talent_10001_1_11</t>
+  </si>
+  <si>
+    <t>talent_10001_1_12</t>
+  </si>
+  <si>
+    <t>talent_10001_1_13</t>
+  </si>
+  <si>
+    <t>talent_10001_1_14</t>
+  </si>
+  <si>
+    <t>talent_10001_1_15</t>
+  </si>
+  <si>
+    <t>talent_10001_1_16</t>
+  </si>
+  <si>
+    <t>talent_10001_1_17</t>
+  </si>
+  <si>
+    <t>talent_10001_2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_10001_2_2</t>
+  </si>
+  <si>
+    <t>talent_10001_2_3</t>
+  </si>
+  <si>
+    <t>talent_10001_2_4</t>
+  </si>
+  <si>
+    <t>talent_10001_2_5</t>
+  </si>
+  <si>
+    <t>talent_10001_2_6</t>
+  </si>
+  <si>
+    <t>talent_10001_2_7</t>
+  </si>
+  <si>
+    <t>talent_10001_2_8</t>
+  </si>
+  <si>
+    <t>talent_10001_2_9</t>
+  </si>
+  <si>
+    <t>talent_10001_2_10</t>
+  </si>
+  <si>
+    <t>talent_10001_2_11</t>
+  </si>
+  <si>
+    <t>talent_10001_2_12</t>
+  </si>
+  <si>
+    <t>talent_10001_2_13</t>
+  </si>
+  <si>
+    <t>talent_10001_2_14</t>
+  </si>
+  <si>
+    <t>talent_10001_2_15</t>
+  </si>
+  <si>
+    <t>talent_10001_2_16</t>
+  </si>
+  <si>
+    <t>talent_10001_2_17</t>
+  </si>
+  <si>
+    <t>talent_10001_3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_10001_3_2</t>
+  </si>
+  <si>
+    <t>talent_10001_3_3</t>
+  </si>
+  <si>
+    <t>talent_10001_3_4</t>
+  </si>
+  <si>
+    <t>talent_10001_3_5</t>
+  </si>
+  <si>
+    <t>talent_10001_3_6</t>
+  </si>
+  <si>
+    <t>talent_10001_3_7</t>
+  </si>
+  <si>
+    <t>talent_10001_3_8</t>
+  </si>
+  <si>
+    <t>talent_10001_3_9</t>
+  </si>
+  <si>
+    <t>talent_10001_3_10</t>
+  </si>
+  <si>
+    <t>talent_10001_3_11</t>
+  </si>
+  <si>
+    <t>talent_10001_3_12</t>
+  </si>
+  <si>
+    <t>talent_10001_3_13</t>
+  </si>
+  <si>
+    <t>talent_10001_3_14</t>
+  </si>
+  <si>
+    <t>talent_10001_3_15</t>
+  </si>
+  <si>
+    <t>talent_10001_3_16</t>
+  </si>
+  <si>
+    <t>talent_10001_3_17</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_2</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_3</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_4</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_5</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_6</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_7</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_8</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_9</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_10</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_11</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_12</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_13</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_14</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_15</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_16</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_1_17</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_2</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_3</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_4</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_5</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_6</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_7</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_8</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_9</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_10</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_11</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_12</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_13</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_14</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_15</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_16</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_2_17</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_2</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_3</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_4</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_5</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_6</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_7</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_8</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_9</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_10</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_11</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_12</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_13</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_14</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_15</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_16</t>
+  </si>
+  <si>
+    <t>talent_desc_10001_3_17</t>
+  </si>
+  <si>
+    <t>装甲大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endowed with strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授予力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点基础攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain 2 basic attack.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tough skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1点护甲和1点魔抗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talent name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋介绍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talent description.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多火花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forceful attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase armor penetration by 50%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升50%护甲穿透。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain extra 100% aromr from equipments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold recycling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造失败返回50%金币。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升3%技能伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase 3% damage from spells. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜血渴望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood thirster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻获得5%生命吸取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain 5% life steal from attack.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fight back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击后有5%的概率进行反击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If be attacked, obain 5% chance to fight back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mana shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈火剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flame sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗等量的魔法吸收20%受到的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升200魔法上限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase 200 max MP.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神圣魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divine magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升100%装备提供的护甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇迹之锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miracle hammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造成功后有10%概率不耗费金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If forging failed, get 50% gold back.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If forging success, obtain 10% chance to cost 0 gold.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升1%暴击几率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase critical rate by 1%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战争之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood of war</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升200生命上限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase 200 max HP.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星工匠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five-star artisan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Supreme quality of equipments increases to 5-star.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备最高品质提升至五星。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷杰茨造成的魔法伤害转化为神圣伤害（无视魔抗）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">All magic damage Rejec dealt translates into holy damage (ignore magic resist) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baptism</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Versatile warrior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双修战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得20点法强。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain 20 spell power.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inner vitality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活血术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升50%生命回复（治疗/吸血/被动回复）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase 50% HP regen (heal / life steal / passive regen)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost the same value of MP to reduce the damage taken by 20%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐蚀匕首</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corrosive dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次普攻减少目标1点护甲（最低为0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce target's armor by 1 per attack (minimum 0 aromr)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升10%装备属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase equipments' attributes by 10%.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Economic forge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济锻造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少5%锻造金钱花费。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reduce 5% gold cost for forging.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力制造者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Violence maker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain 2 gold per attack.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resuscitation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合开始时回复10%已损失的血量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regen 10% lost HP at the beginning of each turn.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blade mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹15%所受伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rebound 15% damage on dealer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次普攻获得2点金钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack damage attaches 20% armor value.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻伤害附加20%护甲值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁子甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chain armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain 1 aromr and 1 magic resist.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain 5 aromr.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点护甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点缀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mana burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burn target's MP while dealing damage (50% of spell power value)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成伤害时燃烧目标MP（燃烧值为50%法强）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻有5%概率击晕目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 5% chance to stun target on attack.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庇护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aegis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷杰茨在场提升其他队友3点护甲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase 3 armor of other allies, when Rejec is on court.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升2%锻造成功率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精准敲打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accurate forge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升1%锻造暴击概率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase 2% success rate for forging.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increase 1% critical rate for forging.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞跃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great leap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造成功后额外获得2点精炼点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If forging success, obtain extra 2 refined points.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Obtain extra 5 refined points on critical forging.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造暴击时获得额外5点精炼点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长剑(1星)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔(1星)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲胄(1星)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披风(1星)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴子(1星)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指环(1星)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发带(1星)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵皮帽(2星)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elf hat(2-star)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword(1-star)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet(1-star)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest(1-star)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cloak(1-star)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boots(1-star)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring(1-star)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hair ribbon(1-star)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1457,7 +2358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1485,6 +2386,12 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1506,12 +2413,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1792,17 +2703,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="78.625" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="66.125" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
@@ -2012,13 +2923,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2067,13 +2978,13 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>235</v>
-      </c>
-      <c r="C24" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2081,10 +2992,10 @@
         <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>603</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2092,10 +3003,10 @@
         <v>122</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>604</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2103,10 +3014,10 @@
         <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>605</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2114,10 +3025,10 @@
         <v>124</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>606</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2125,10 +3036,10 @@
         <v>135</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>607</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2136,10 +3047,10 @@
         <v>125</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>608</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2147,10 +3058,10 @@
         <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>144</v>
+        <v>609</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2158,10 +3069,10 @@
         <v>143</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>610</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2202,21 +3113,21 @@
         <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" t="s">
         <v>329</v>
-      </c>
-      <c r="C36" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" t="s">
         <v>237</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C37" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2293,7 +3204,7 @@
         <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2334,7 +3245,7 @@
         <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C48" t="s">
         <v>74</v>
@@ -2496,926 +3407,2048 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" t="s">
         <v>152</v>
-      </c>
-      <c r="C64" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C65" t="s">
         <v>342</v>
-      </c>
-      <c r="C65" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="C66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" t="s">
         <v>254</v>
-      </c>
-      <c r="C68" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" t="s">
         <v>212</v>
-      </c>
-      <c r="C69" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" t="s">
         <v>209</v>
-      </c>
-      <c r="B94" t="s">
-        <v>211</v>
-      </c>
-      <c r="C94" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" t="s">
         <v>214</v>
       </c>
-      <c r="B95" t="s">
-        <v>215</v>
-      </c>
       <c r="C95" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>215</v>
+      </c>
+      <c r="B96" t="s">
         <v>216</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>217</v>
-      </c>
-      <c r="C96" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" t="s">
         <v>219</v>
-      </c>
-      <c r="C97" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>354</v>
+      </c>
+      <c r="B98" t="s">
         <v>355</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>356</v>
-      </c>
-      <c r="C98" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" t="s">
         <v>221</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>222</v>
-      </c>
-      <c r="C99" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>225</v>
+      </c>
+      <c r="B101" t="s">
         <v>226</v>
       </c>
-      <c r="B101" t="s">
-        <v>227</v>
-      </c>
       <c r="C101" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>227</v>
+      </c>
+      <c r="B102" t="s">
         <v>228</v>
       </c>
-      <c r="B102" t="s">
-        <v>229</v>
-      </c>
       <c r="C102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" t="s">
         <v>230</v>
       </c>
-      <c r="B103" t="s">
-        <v>231</v>
-      </c>
       <c r="C103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>239</v>
+      </c>
+      <c r="B104" t="s">
         <v>240</v>
       </c>
-      <c r="B104" t="s">
-        <v>241</v>
-      </c>
       <c r="C104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B105" t="s">
+        <v>247</v>
+      </c>
+      <c r="C105" t="s">
         <v>248</v>
-      </c>
-      <c r="C105" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B106" t="s">
+        <v>249</v>
+      </c>
+      <c r="C106" t="s">
         <v>250</v>
-      </c>
-      <c r="C106" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B107" t="s">
+        <v>251</v>
+      </c>
+      <c r="C107" t="s">
         <v>252</v>
-      </c>
-      <c r="C107" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B108" t="s">
+        <v>247</v>
+      </c>
+      <c r="C108" t="s">
         <v>248</v>
-      </c>
-      <c r="C108" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B109" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" t="s">
         <v>250</v>
-      </c>
-      <c r="C109" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B110" t="s">
+        <v>251</v>
+      </c>
+      <c r="C110" t="s">
         <v>252</v>
-      </c>
-      <c r="C110" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B111" t="s">
         <v>256</v>
       </c>
-      <c r="B111" t="s">
-        <v>257</v>
-      </c>
       <c r="C111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B112" t="s">
         <v>258</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
         <v>259</v>
-      </c>
-      <c r="C112" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B113" t="s">
         <v>262</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
         <v>263</v>
-      </c>
-      <c r="C113" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B114" t="s">
+        <v>264</v>
+      </c>
+      <c r="C114" t="s">
         <v>265</v>
-      </c>
-      <c r="C114" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B115" t="s">
         <v>267</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>268</v>
-      </c>
-      <c r="C115" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B116" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>271</v>
+      </c>
+      <c r="B117" t="s">
         <v>272</v>
       </c>
-      <c r="B117" t="s">
-        <v>273</v>
-      </c>
       <c r="C117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>276</v>
+      </c>
+      <c r="B118" t="s">
         <v>277</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>278</v>
-      </c>
-      <c r="C118" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
+        <v>279</v>
+      </c>
+      <c r="B119" t="s">
         <v>280</v>
       </c>
-      <c r="B119" t="s">
-        <v>281</v>
-      </c>
       <c r="C119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>281</v>
+      </c>
+      <c r="B120" t="s">
         <v>282</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>283</v>
-      </c>
-      <c r="C120" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>284</v>
+      </c>
+      <c r="B121" t="s">
         <v>285</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>286</v>
-      </c>
-      <c r="C121" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" t="s">
         <v>288</v>
       </c>
-      <c r="B122" t="s">
-        <v>289</v>
-      </c>
       <c r="C122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
+        <v>289</v>
+      </c>
+      <c r="B123" t="s">
         <v>290</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>291</v>
-      </c>
-      <c r="C123" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>292</v>
+      </c>
+      <c r="B124" t="s">
         <v>293</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>294</v>
-      </c>
-      <c r="C124" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
+        <v>295</v>
+      </c>
+      <c r="B125" t="s">
         <v>296</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>297</v>
-      </c>
-      <c r="C125" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>298</v>
+      </c>
+      <c r="B126" t="s">
         <v>299</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>300</v>
-      </c>
-      <c r="C126" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127" t="s">
         <v>302</v>
-      </c>
-      <c r="B127" t="s">
-        <v>304</v>
-      </c>
-      <c r="C127" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>304</v>
+      </c>
+      <c r="B128" t="s">
         <v>305</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>306</v>
-      </c>
-      <c r="C128" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>307</v>
+      </c>
+      <c r="B129" t="s">
         <v>308</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>309</v>
-      </c>
-      <c r="C129" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
+        <v>310</v>
+      </c>
+      <c r="B130" t="s">
         <v>311</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>312</v>
-      </c>
-      <c r="C130" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C131" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
+        <v>314</v>
+      </c>
+      <c r="B132" t="s">
+        <v>318</v>
+      </c>
+      <c r="C132" t="s">
         <v>315</v>
-      </c>
-      <c r="B132" t="s">
-        <v>319</v>
-      </c>
-      <c r="C132" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>320</v>
+      </c>
+      <c r="B133" t="s">
         <v>321</v>
       </c>
-      <c r="B133" t="s">
-        <v>322</v>
-      </c>
       <c r="C133" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>322</v>
+      </c>
+      <c r="B134" t="s">
         <v>323</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>324</v>
-      </c>
-      <c r="C134" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>325</v>
+      </c>
+      <c r="B135" t="s">
         <v>326</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>327</v>
-      </c>
-      <c r="C135" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>330</v>
+      </c>
+      <c r="B136" t="s">
+        <v>332</v>
+      </c>
+      <c r="C136" t="s">
         <v>331</v>
-      </c>
-      <c r="B136" t="s">
-        <v>333</v>
-      </c>
-      <c r="C136" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B137" t="s">
+        <v>345</v>
+      </c>
+      <c r="C137" t="s">
         <v>346</v>
-      </c>
-      <c r="C137" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>333</v>
+      </c>
+      <c r="B138" t="s">
+        <v>340</v>
+      </c>
+      <c r="C138" t="s">
         <v>334</v>
-      </c>
-      <c r="B138" t="s">
-        <v>341</v>
-      </c>
-      <c r="C138" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B139" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C139" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B140" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
+        <v>348</v>
+      </c>
+      <c r="B141" t="s">
         <v>349</v>
       </c>
-      <c r="B141" t="s">
-        <v>350</v>
-      </c>
       <c r="C141" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
+        <v>350</v>
+      </c>
+      <c r="B142" t="s">
+        <v>353</v>
+      </c>
+      <c r="C142" t="s">
         <v>351</v>
-      </c>
-      <c r="B142" t="s">
-        <v>354</v>
-      </c>
-      <c r="C142" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>357</v>
+      </c>
+      <c r="B143" t="s">
         <v>358</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>359</v>
-      </c>
-      <c r="C143" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
+        <v>361</v>
+      </c>
+      <c r="B144" t="s">
         <v>362</v>
       </c>
-      <c r="B144" t="s">
-        <v>363</v>
-      </c>
       <c r="C144" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B145" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C145" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>365</v>
+      </c>
+      <c r="B146" t="s">
         <v>366</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>367</v>
       </c>
-      <c r="C146" t="s">
-        <v>368</v>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B147" t="s">
+        <v>474</v>
+      </c>
+      <c r="C147" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B148" t="s">
+        <v>556</v>
+      </c>
+      <c r="C148" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B149" t="s">
+        <v>498</v>
+      </c>
+      <c r="C149" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B150" t="s">
+        <v>480</v>
+      </c>
+      <c r="C150" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B151" t="s">
+        <v>583</v>
+      </c>
+      <c r="C151" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B152" t="s">
+        <v>480</v>
+      </c>
+      <c r="C152" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B153" t="s">
+        <v>523</v>
+      </c>
+      <c r="C153" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B154" t="s">
+        <v>480</v>
+      </c>
+      <c r="C154" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B155" t="s">
+        <v>480</v>
+      </c>
+      <c r="C155" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B156" t="s">
+        <v>480</v>
+      </c>
+      <c r="C156" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B157" t="s">
+        <v>508</v>
+      </c>
+      <c r="C157" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B158" t="s">
+        <v>579</v>
+      </c>
+      <c r="C158" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B159" t="s">
+        <v>546</v>
+      </c>
+      <c r="C159" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B160" t="s">
+        <v>559</v>
+      </c>
+      <c r="C160" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B161" t="s">
+        <v>535</v>
+      </c>
+      <c r="C161" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B162" t="s">
+        <v>538</v>
+      </c>
+      <c r="C162" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B163" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B164" t="s">
+        <v>477</v>
+      </c>
+      <c r="C164" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B165" t="s">
+        <v>480</v>
+      </c>
+      <c r="C165" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B166" t="s">
+        <v>480</v>
+      </c>
+      <c r="C166" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B167" t="s">
+        <v>480</v>
+      </c>
+      <c r="C167" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B168" t="s">
+        <v>480</v>
+      </c>
+      <c r="C168" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B169" t="s">
+        <v>480</v>
+      </c>
+      <c r="C169" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B170" t="s">
+        <v>506</v>
+      </c>
+      <c r="C170" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B171" t="s">
+        <v>480</v>
+      </c>
+      <c r="C171" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B172" t="s">
+        <v>572</v>
+      </c>
+      <c r="C172" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B173" t="s">
+        <v>587</v>
+      </c>
+      <c r="C173" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B174" t="s">
+        <v>565</v>
+      </c>
+      <c r="C174" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B175" t="s">
+        <v>561</v>
+      </c>
+      <c r="C175" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B176" t="s">
+        <v>513</v>
+      </c>
+      <c r="C176" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B177" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B178" t="s">
+        <v>502</v>
+      </c>
+      <c r="C178" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B179" t="s">
+        <v>542</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B180" t="s">
+        <v>471</v>
+      </c>
+      <c r="C180" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B181" t="s">
+        <v>486</v>
+      </c>
+      <c r="C181" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B182" t="s">
+        <v>480</v>
+      </c>
+      <c r="C182" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B183" t="s">
+        <v>553</v>
+      </c>
+      <c r="C183" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B184" t="s">
+        <v>577</v>
+      </c>
+      <c r="C184" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B185" t="s">
+        <v>592</v>
+      </c>
+      <c r="C185" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B186" t="s">
+        <v>480</v>
+      </c>
+      <c r="C186" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B187" t="s">
+        <v>480</v>
+      </c>
+      <c r="C187" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B188" t="s">
+        <v>480</v>
+      </c>
+      <c r="C188" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B189" t="s">
+        <v>597</v>
+      </c>
+      <c r="C189" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B190" t="s">
+        <v>480</v>
+      </c>
+      <c r="C190" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B191" t="s">
+        <v>480</v>
+      </c>
+      <c r="C191" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B192" t="s">
+        <v>529</v>
+      </c>
+      <c r="C192" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B193" t="s">
+        <v>480</v>
+      </c>
+      <c r="C193" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B194" t="s">
+        <v>493</v>
+      </c>
+      <c r="C194" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B195" t="s">
+        <v>516</v>
+      </c>
+      <c r="C195" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B196" t="s">
+        <v>480</v>
+      </c>
+      <c r="C196" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B197" t="s">
+        <v>484</v>
+      </c>
+      <c r="C197" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B198" t="s">
+        <v>475</v>
+      </c>
+      <c r="C198" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B199" t="s">
+        <v>521</v>
+      </c>
+      <c r="C199" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B200" t="s">
+        <v>500</v>
+      </c>
+      <c r="C200" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B201" t="s">
+        <v>482</v>
+      </c>
+      <c r="C201" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B202" t="s">
+        <v>584</v>
+      </c>
+      <c r="C202" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B203" t="s">
+        <v>482</v>
+      </c>
+      <c r="C203" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B204" t="s">
+        <v>571</v>
+      </c>
+      <c r="C204" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B205" t="s">
+        <v>482</v>
+      </c>
+      <c r="C205" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B206" t="s">
+        <v>482</v>
+      </c>
+      <c r="C206" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B207" t="s">
+        <v>482</v>
+      </c>
+      <c r="C207" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B208" t="s">
+        <v>496</v>
+      </c>
+      <c r="C208" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B209" t="s">
+        <v>582</v>
+      </c>
+      <c r="C209" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B210" t="s">
+        <v>548</v>
+      </c>
+      <c r="C210" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B211" t="s">
+        <v>569</v>
+      </c>
+      <c r="C211" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B212" t="s">
+        <v>533</v>
+      </c>
+      <c r="C212" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B213" t="s">
+        <v>539</v>
+      </c>
+      <c r="C213" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B214" t="s">
+        <v>491</v>
+      </c>
+      <c r="C214" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B215" t="s">
+        <v>479</v>
+      </c>
+      <c r="C215" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B216" t="s">
+        <v>482</v>
+      </c>
+      <c r="C216" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B217" t="s">
+        <v>482</v>
+      </c>
+      <c r="C217" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B218" t="s">
+        <v>482</v>
+      </c>
+      <c r="C218" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B219" t="s">
+        <v>482</v>
+      </c>
+      <c r="C219" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B220" t="s">
+        <v>482</v>
+      </c>
+      <c r="C220" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B221" t="s">
+        <v>510</v>
+      </c>
+      <c r="C221" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B222" t="s">
+        <v>482</v>
+      </c>
+      <c r="C222" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B223" t="s">
+        <v>576</v>
+      </c>
+      <c r="C223" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>589</v>
+      </c>
+      <c r="C224" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B225" t="s">
+        <v>567</v>
+      </c>
+      <c r="C225" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" t="s">
+        <v>563</v>
+      </c>
+      <c r="C226" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B227" t="s">
+        <v>511</v>
+      </c>
+      <c r="C227" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B228" t="s">
+        <v>527</v>
+      </c>
+      <c r="C228" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B229" t="s">
+        <v>504</v>
+      </c>
+      <c r="C229" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B230" t="s">
+        <v>543</v>
+      </c>
+      <c r="C230" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B231" t="s">
+        <v>515</v>
+      </c>
+      <c r="C231" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B232" t="s">
+        <v>591</v>
+      </c>
+      <c r="C232" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B233" t="s">
+        <v>482</v>
+      </c>
+      <c r="C233" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B234" t="s">
+        <v>554</v>
+      </c>
+      <c r="C234" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B235" t="s">
+        <v>599</v>
+      </c>
+      <c r="C235" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B236" t="s">
+        <v>594</v>
+      </c>
+      <c r="C236" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B237" t="s">
+        <v>482</v>
+      </c>
+      <c r="C237" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B238" t="s">
+        <v>482</v>
+      </c>
+      <c r="C238" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B239" t="s">
+        <v>482</v>
+      </c>
+      <c r="C239" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B240" t="s">
+        <v>602</v>
+      </c>
+      <c r="C240" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B241" t="s">
+        <v>482</v>
+      </c>
+      <c r="C241" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B242" t="s">
+        <v>482</v>
+      </c>
+      <c r="C242" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B243" t="s">
+        <v>532</v>
+      </c>
+      <c r="C243" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B244" t="s">
+        <v>482</v>
+      </c>
+      <c r="C244" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B245" t="s">
+        <v>495</v>
+      </c>
+      <c r="C245" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B246" t="s">
+        <v>518</v>
+      </c>
+      <c r="C246" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B247" t="s">
+        <v>482</v>
+      </c>
+      <c r="C247" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B248" t="s">
+        <v>550</v>
+      </c>
+      <c r="C248" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="646">
   <si>
     <t>ID</t>
   </si>
@@ -2290,67 +2290,169 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长剑(1星)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔(1星)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲胄(1星)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>披风(1星)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靴子(1星)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指环(1星)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发带(1星)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精灵皮帽(2星)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elf hat(2-star)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword(1-star)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helmet(1-star)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chest(1-star)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cloak(1-star)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boots(1-star)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ring(1-star)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hair ribbon(1-star)</t>
+    <t>头盔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackSmith</t>
+  </si>
+  <si>
+    <t>Black Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackSmithIntro</t>
+  </si>
+  <si>
+    <t>我是这里的铁匠，请问有什么可以帮你的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am a happy blacksmith. What can I help you?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForgeSomething</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuySomething</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买点什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy something.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小铁匠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造装备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge equipments.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedMaterials</t>
+  </si>
+  <si>
+    <t>Materials:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equip_Sword_1_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ember sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc_Sword_1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余烬之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需材料:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需金钱:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost of gold:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge</t>
+  </si>
+  <si>
+    <t>Forge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not enough materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_NotEnoughMaterials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_ForgeSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tip_ForgeFailed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forge success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2703,15 +2805,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C248"/>
+  <dimension ref="A1:C263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B259" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
     <col min="2" max="2" width="78.625" customWidth="1"/>
     <col min="3" max="3" width="66.125" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
@@ -2992,1401 +3094,1401 @@
         <v>121</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>603</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>612</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>619</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="C26" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C27" t="s">
-        <v>614</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>606</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>607</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>616</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>608</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>617</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>609</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>618</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>610</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>611</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>328</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>329</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>234</v>
+        <v>328</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>621</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>129</v>
+        <v>622</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>620</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>347</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>106</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C63" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>150</v>
+      <c r="A64" t="s">
+        <v>112</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>154</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>253</v>
+        <v>155</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15">
-      <c r="A69" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" t="s">
-        <v>212</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" t="s">
-        <v>184</v>
+        <v>260</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
       <c r="A71" t="s">
-        <v>161</v>
-      </c>
-      <c r="B71" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B76" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B78" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B90" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>213</v>
+      <c r="A95" t="s">
+        <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
+      </c>
+      <c r="C95" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B96" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>223</v>
+      <c r="A97" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
-      </c>
-      <c r="C97" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>355</v>
+        <v>216</v>
       </c>
       <c r="C98" t="s">
-        <v>356</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="C100" t="s">
-        <v>231</v>
+        <v>356</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B101" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B102" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C102" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>239</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" t="s">
         <v>240</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C106" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B105" t="s">
-        <v>247</v>
-      </c>
-      <c r="C105" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B106" t="s">
-        <v>249</v>
-      </c>
-      <c r="C106" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C108" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C110" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B111" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B112" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C113" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>269</v>
+      <c r="A114" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="B114" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C114" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C115" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C116" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>271</v>
+      <c r="A117" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C117" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C118" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B119" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C119" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B120" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C120" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B121" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C121" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B122" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C122" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B123" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C123" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B124" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C124" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B125" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C125" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B126" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C126" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B127" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C127" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C128" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B129" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C129" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B130" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C130" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B131" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C131" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B132" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B133" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B134" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C134" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B135" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C135" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B136" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C136" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B137" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="C137" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B138" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C138" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B139" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C139" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B140" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C140" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B141" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C141" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B142" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C142" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B143" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C143" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B144" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C144" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B145" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C145" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>361</v>
+      </c>
+      <c r="B146" t="s">
+        <v>362</v>
+      </c>
+      <c r="C146" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>364</v>
+      </c>
+      <c r="B147" t="s">
+        <v>368</v>
+      </c>
+      <c r="C147" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
         <v>365</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B148" t="s">
         <v>366</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C148" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B147" t="s">
-        <v>474</v>
-      </c>
-      <c r="C147" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B148" t="s">
-        <v>556</v>
-      </c>
-      <c r="C148" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B149" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C149" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B150" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="C150" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B151" t="s">
-        <v>583</v>
+        <v>498</v>
       </c>
       <c r="C151" t="s">
-        <v>586</v>
+        <v>499</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B152" t="s">
         <v>480</v>
@@ -4397,18 +4499,18 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B153" t="s">
-        <v>523</v>
+        <v>583</v>
       </c>
       <c r="C153" t="s">
-        <v>524</v>
+        <v>586</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B154" t="s">
         <v>480</v>
@@ -4419,18 +4521,18 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B155" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="C155" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B156" t="s">
         <v>480</v>
@@ -4441,117 +4543,117 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B157" t="s">
-        <v>508</v>
+        <v>480</v>
       </c>
       <c r="C157" t="s">
-        <v>509</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B158" t="s">
-        <v>579</v>
+        <v>480</v>
       </c>
       <c r="C158" t="s">
-        <v>580</v>
+        <v>481</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B159" t="s">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="C159" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B160" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="C160" t="s">
-        <v>558</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B161" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="C161" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B162" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="C162" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B163" t="s">
-        <v>488</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>489</v>
+        <v>535</v>
+      </c>
+      <c r="C163" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B164" t="s">
-        <v>477</v>
+        <v>538</v>
       </c>
       <c r="C164" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B165" t="s">
-        <v>480</v>
-      </c>
-      <c r="C165" t="s">
-        <v>481</v>
+        <v>488</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B166" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C166" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B167" t="s">
         <v>480</v>
@@ -4562,7 +4664,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B168" t="s">
         <v>480</v>
@@ -4573,7 +4675,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B169" t="s">
         <v>480</v>
@@ -4584,18 +4686,18 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B170" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C170" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B171" t="s">
         <v>480</v>
@@ -4606,183 +4708,183 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B172" t="s">
-        <v>572</v>
+        <v>506</v>
       </c>
       <c r="C172" t="s">
-        <v>573</v>
+        <v>507</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B173" t="s">
-        <v>587</v>
+        <v>480</v>
       </c>
       <c r="C173" t="s">
-        <v>588</v>
+        <v>481</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B174" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="C174" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B175" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="C175" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B176" t="s">
-        <v>513</v>
+        <v>565</v>
       </c>
       <c r="C176" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B177" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="C177" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B178" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="C178" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B179" t="s">
-        <v>542</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>541</v>
+        <v>525</v>
+      </c>
+      <c r="C179" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B180" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="C180" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B181" t="s">
-        <v>486</v>
-      </c>
-      <c r="C181" t="s">
-        <v>487</v>
+        <v>542</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B182" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C182" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B183" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="C183" t="s">
-        <v>552</v>
+        <v>487</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B184" t="s">
-        <v>577</v>
+        <v>480</v>
       </c>
       <c r="C184" t="s">
-        <v>578</v>
+        <v>481</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B185" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="C185" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B186" t="s">
-        <v>480</v>
+        <v>577</v>
       </c>
       <c r="C186" t="s">
-        <v>481</v>
+        <v>578</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B187" t="s">
-        <v>480</v>
+        <v>592</v>
       </c>
       <c r="C187" t="s">
-        <v>481</v>
+        <v>593</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B188" t="s">
         <v>480</v>
@@ -4793,18 +4895,18 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B189" t="s">
-        <v>597</v>
+        <v>480</v>
       </c>
       <c r="C189" t="s">
-        <v>598</v>
+        <v>481</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B190" t="s">
         <v>480</v>
@@ -4815,29 +4917,29 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B191" t="s">
-        <v>480</v>
+        <v>597</v>
       </c>
       <c r="C191" t="s">
-        <v>481</v>
+        <v>598</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B192" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="C192" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B193" t="s">
         <v>480</v>
@@ -4848,106 +4950,106 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B194" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="C194" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B195" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="C195" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B196" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C196" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B197" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="C197" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B198" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C198" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B199" t="s">
-        <v>521</v>
+        <v>484</v>
       </c>
       <c r="C199" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B200" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="C200" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B201" t="s">
-        <v>482</v>
+        <v>521</v>
       </c>
       <c r="C201" t="s">
-        <v>483</v>
+        <v>522</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B202" t="s">
-        <v>584</v>
+        <v>500</v>
       </c>
       <c r="C202" t="s">
-        <v>585</v>
+        <v>501</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B203" t="s">
         <v>482</v>
@@ -4958,18 +5060,18 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B204" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="C204" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B205" t="s">
         <v>482</v>
@@ -4980,18 +5082,18 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B206" t="s">
-        <v>482</v>
+        <v>571</v>
       </c>
       <c r="C206" t="s">
-        <v>483</v>
+        <v>570</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B207" t="s">
         <v>482</v>
@@ -5002,117 +5104,117 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B208" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C208" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B209" t="s">
-        <v>582</v>
+        <v>482</v>
       </c>
       <c r="C209" t="s">
-        <v>581</v>
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B210" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
       <c r="C210" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B211" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="C211" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B212" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="C212" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B213" t="s">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="C213" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B214" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="C214" t="s">
-        <v>490</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B215" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="C215" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B216" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C216" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B217" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C217" t="s">
-        <v>483</v>
+        <v>574</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B218" t="s">
         <v>482</v>
@@ -5123,7 +5225,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B219" t="s">
         <v>482</v>
@@ -5134,7 +5236,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B220" t="s">
         <v>482</v>
@@ -5145,18 +5247,18 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B221" t="s">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="C221" t="s">
-        <v>545</v>
+        <v>483</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B222" t="s">
         <v>482</v>
@@ -5167,183 +5269,183 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B223" t="s">
-        <v>576</v>
+        <v>510</v>
       </c>
       <c r="C223" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B224" t="s">
-        <v>589</v>
+        <v>482</v>
       </c>
       <c r="C224" t="s">
-        <v>590</v>
+        <v>483</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B225" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="C225" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B226" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="C226" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B227" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="C227" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B228" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="C228" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B229" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C229" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B230" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="C230" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B231" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C231" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B232" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="C232" t="s">
-        <v>595</v>
+        <v>544</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B233" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="C233" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B234" t="s">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="C234" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B235" t="s">
-        <v>599</v>
+        <v>482</v>
       </c>
       <c r="C235" t="s">
-        <v>600</v>
+        <v>483</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B236" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="C236" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B237" t="s">
-        <v>482</v>
+        <v>599</v>
       </c>
       <c r="C237" t="s">
-        <v>483</v>
+        <v>600</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B238" t="s">
-        <v>482</v>
+        <v>594</v>
       </c>
       <c r="C238" t="s">
-        <v>483</v>
+        <v>596</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B239" t="s">
         <v>482</v>
@@ -5354,18 +5456,18 @@
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B240" t="s">
-        <v>602</v>
+        <v>482</v>
       </c>
       <c r="C240" t="s">
-        <v>601</v>
+        <v>483</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B241" t="s">
         <v>482</v>
@@ -5376,29 +5478,29 @@
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B242" t="s">
-        <v>482</v>
+        <v>602</v>
       </c>
       <c r="C242" t="s">
-        <v>483</v>
+        <v>601</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B243" t="s">
-        <v>532</v>
+        <v>482</v>
       </c>
       <c r="C243" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B244" t="s">
         <v>482</v>
@@ -5409,46 +5511,211 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B245" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="C245" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B246" t="s">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="C246" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B247" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="C247" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B248" t="s">
+        <v>518</v>
+      </c>
+      <c r="C248" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B249" t="s">
+        <v>482</v>
+      </c>
+      <c r="C249" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B250" t="s">
         <v>550</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C250" t="s">
         <v>551</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>605</v>
+      </c>
+      <c r="B251" t="s">
+        <v>614</v>
+      </c>
+      <c r="C251" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>607</v>
+      </c>
+      <c r="B252" t="s">
+        <v>608</v>
+      </c>
+      <c r="C252" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>610</v>
+      </c>
+      <c r="B253" t="s">
+        <v>615</v>
+      </c>
+      <c r="C253" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>611</v>
+      </c>
+      <c r="B254" t="s">
+        <v>612</v>
+      </c>
+      <c r="C254" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>617</v>
+      </c>
+      <c r="B255" t="s">
+        <v>630</v>
+      </c>
+      <c r="C255" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>623</v>
+      </c>
+      <c r="B256" t="s">
+        <v>624</v>
+      </c>
+      <c r="C256" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>626</v>
+      </c>
+      <c r="B257" t="s">
+        <v>627</v>
+      </c>
+      <c r="C257" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>628</v>
+      </c>
+      <c r="B258" t="s">
+        <v>629</v>
+      </c>
+      <c r="C258" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>632</v>
+      </c>
+      <c r="B259" t="s">
+        <v>631</v>
+      </c>
+      <c r="C259" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>635</v>
+      </c>
+      <c r="B260" t="s">
+        <v>636</v>
+      </c>
+      <c r="C260" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>639</v>
+      </c>
+      <c r="B261" t="s">
+        <v>637</v>
+      </c>
+      <c r="C261" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>640</v>
+      </c>
+      <c r="B262" t="s">
+        <v>642</v>
+      </c>
+      <c r="C262" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>641</v>
+      </c>
+      <c r="B263" t="s">
+        <v>643</v>
+      </c>
+      <c r="C263" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="649">
   <si>
     <t>ID</t>
   </si>
@@ -2453,6 +2453,18 @@
   </si>
   <si>
     <t>Forge success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备已达最高品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipSupQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment of supreme quality</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2805,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C263"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B259" sqref="B259"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="C261" sqref="C261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5718,6 +5730,17 @@
         <v>644</v>
       </c>
     </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>647</v>
+      </c>
+      <c r="B264" t="s">
+        <v>646</v>
+      </c>
+      <c r="C264" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataTools/excelData/localization/localization.xlsx
+++ b/dataTools/excelData/localization/localization.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="646">
   <si>
     <t>ID</t>
   </si>
@@ -247,14 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>精灵皮帽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1123,14 +1115,6 @@
     <t>MoleThanks</t>
   </si>
   <si>
-    <t>太感谢了，这把长剑就送给你了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thank you. Here is a sword for your kindness.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Frog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2351,22 +2335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Equip_Sword_1_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ember sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc_Sword_1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余烬之刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Add</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2465,6 +2433,26 @@
   </si>
   <si>
     <t>Equipment of supreme quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大埃阿斯之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword of Ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大埃阿斯之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thank you. Here is a epic sword for your kindness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太感谢了，这把传奇之剑就送给你了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2817,10 +2805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="C261" sqref="C261"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3037,18 +3025,18 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>51</v>
@@ -3059,7 +3047,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>52</v>
@@ -3070,7 +3058,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>54</v>
@@ -3081,7 +3069,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>56</v>
@@ -3092,76 +3080,76 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" t="s">
         <v>233</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C24" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>643</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>642</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>619</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="C26" t="s">
-        <v>620</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>603</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>604</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
         <v>134</v>
@@ -3169,112 +3157,112 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>328</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>234</v>
+        <v>641</v>
       </c>
       <c r="C38" t="s">
-        <v>237</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>621</v>
+        <v>136</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>622</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>620</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3282,7 +3270,7 @@
         <v>137</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C41" t="s">
         <v>131</v>
@@ -3293,7 +3281,7 @@
         <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
         <v>132</v>
@@ -3304,103 +3292,103 @@
         <v>139</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>347</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>98</v>
@@ -3421,30 +3409,30 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>96</v>
+      <c r="A54" t="s">
+        <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>97</v>
+      <c r="A55" t="s">
+        <v>105</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>83</v>
@@ -3455,7 +3443,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>84</v>
@@ -3488,134 +3476,134 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>112</v>
+      <c r="A64" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>149</v>
+        <v>337</v>
       </c>
       <c r="C65" t="s">
-        <v>148</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>150</v>
+      <c r="A66" t="s">
+        <v>152</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C66" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>153</v>
+      <c r="A67" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C67" t="s">
-        <v>342</v>
+        <v>156</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>258</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69" t="s">
         <v>157</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>260</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>253</v>
+        <v>158</v>
+      </c>
+      <c r="B70" t="s">
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>211</v>
+      <c r="B71" t="s">
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3862,145 +3850,145 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>183</v>
+      <c r="A95" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
-      </c>
-      <c r="C95" t="s">
-        <v>183</v>
+        <v>212</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>213</v>
+      <c r="A97" t="s">
+        <v>221</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="C97" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>215</v>
+        <v>350</v>
       </c>
       <c r="B98" t="s">
-        <v>216</v>
+        <v>351</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>354</v>
+        <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>355</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
-        <v>356</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B101" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B104" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>229</v>
+      <c r="A105" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B105" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>239</v>
+      <c r="A106" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4008,10 +3996,10 @@
         <v>241</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -4019,10 +4007,10 @@
         <v>242</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C108" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -4030,10 +4018,10 @@
         <v>243</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C109" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -4041,139 +4029,139 @@
         <v>244</v>
       </c>
       <c r="B110" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B113" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C113" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="1" t="s">
-        <v>257</v>
+      <c r="A114" t="s">
+        <v>267</v>
       </c>
       <c r="B114" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C114" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C115" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>268</v>
+      </c>
+      <c r="B116" t="s">
+        <v>271</v>
+      </c>
+      <c r="C116" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
         <v>269</v>
       </c>
-      <c r="B116" t="s">
-        <v>264</v>
-      </c>
-      <c r="C116" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C117" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B118" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C118" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C119" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B120" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C120" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B121" t="s">
-        <v>280</v>
+        <v>645</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B122" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C122" t="s">
         <v>283</v>
@@ -4181,101 +4169,101 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B123" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C124" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B125" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C125" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B126" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C126" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B127" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C127" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B128" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C128" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B129" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C129" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C130" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B131" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C131" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -4283,92 +4271,92 @@
         <v>310</v>
       </c>
       <c r="B132" t="s">
+        <v>314</v>
+      </c>
+      <c r="C132" t="s">
         <v>311</v>
-      </c>
-      <c r="C132" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B133" t="s">
         <v>317</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B134" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C134" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B135" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C135" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C136" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B137" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C137" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>329</v>
+      </c>
+      <c r="B138" t="s">
+        <v>336</v>
+      </c>
+      <c r="C138" t="s">
         <v>330</v>
-      </c>
-      <c r="B138" t="s">
-        <v>332</v>
-      </c>
-      <c r="C138" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B139" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C139" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B140" t="s">
         <v>340</v>
@@ -4379,54 +4367,54 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B141" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C141" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="B142" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C142" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B143" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C143" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B144" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C144" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B145" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C145" t="s">
         <v>359</v>
@@ -4440,1162 +4428,1162 @@
         <v>362</v>
       </c>
       <c r="C146" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>364</v>
+      <c r="A147" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="B147" t="s">
-        <v>368</v>
+        <v>470</v>
       </c>
       <c r="C147" t="s">
-        <v>363</v>
+        <v>469</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>365</v>
+      <c r="A148" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="B148" t="s">
-        <v>366</v>
+        <v>552</v>
       </c>
       <c r="C148" t="s">
-        <v>367</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B149" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C149" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B150" t="s">
-        <v>556</v>
+        <v>476</v>
       </c>
       <c r="C150" t="s">
-        <v>557</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B151" t="s">
-        <v>498</v>
+        <v>579</v>
       </c>
       <c r="C151" t="s">
-        <v>499</v>
+        <v>582</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B152" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C152" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B153" t="s">
-        <v>583</v>
+        <v>519</v>
       </c>
       <c r="C153" t="s">
-        <v>586</v>
+        <v>520</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B154" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C154" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B155" t="s">
-        <v>523</v>
+        <v>476</v>
       </c>
       <c r="C155" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B156" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C156" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B157" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="C157" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B158" t="s">
-        <v>480</v>
+        <v>575</v>
       </c>
       <c r="C158" t="s">
-        <v>481</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B159" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="C159" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B160" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="C160" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B161" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="C161" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B162" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="C162" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B163" t="s">
-        <v>535</v>
-      </c>
-      <c r="C163" t="s">
-        <v>536</v>
+        <v>484</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B164" t="s">
-        <v>538</v>
+        <v>473</v>
       </c>
       <c r="C164" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B165" t="s">
-        <v>488</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>489</v>
+        <v>476</v>
+      </c>
+      <c r="C165" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B166" t="s">
+        <v>476</v>
+      </c>
+      <c r="C166" t="s">
         <v>477</v>
-      </c>
-      <c r="C166" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B167" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C167" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B168" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C168" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B169" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C169" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B170" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="C170" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B171" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C171" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B172" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="C172" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B173" t="s">
-        <v>480</v>
+        <v>583</v>
       </c>
       <c r="C173" t="s">
-        <v>481</v>
+        <v>584</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B174" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C174" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B175" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="C175" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B176" t="s">
-        <v>565</v>
+        <v>509</v>
       </c>
       <c r="C176" t="s">
-        <v>566</v>
+        <v>510</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B177" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="C177" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B178" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C178" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B179" t="s">
-        <v>525</v>
-      </c>
-      <c r="C179" t="s">
-        <v>526</v>
+        <v>538</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B180" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="C180" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B181" t="s">
-        <v>542</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>541</v>
+        <v>482</v>
+      </c>
+      <c r="C181" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B182" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C182" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B183" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="C183" t="s">
-        <v>487</v>
+        <v>548</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B184" t="s">
-        <v>480</v>
+        <v>573</v>
       </c>
       <c r="C184" t="s">
-        <v>481</v>
+        <v>574</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B185" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="C185" t="s">
-        <v>552</v>
+        <v>589</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B186" t="s">
-        <v>577</v>
+        <v>476</v>
       </c>
       <c r="C186" t="s">
-        <v>578</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B187" t="s">
-        <v>592</v>
+        <v>476</v>
       </c>
       <c r="C187" t="s">
-        <v>593</v>
+        <v>477</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B188" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C188" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B189" t="s">
-        <v>480</v>
+        <v>593</v>
       </c>
       <c r="C189" t="s">
-        <v>481</v>
+        <v>594</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B190" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C190" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B191" t="s">
-        <v>597</v>
+        <v>476</v>
       </c>
       <c r="C191" t="s">
-        <v>598</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B192" t="s">
-        <v>480</v>
+        <v>525</v>
       </c>
       <c r="C192" t="s">
-        <v>481</v>
+        <v>526</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B193" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C193" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B194" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="C194" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B195" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="C195" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B196" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C196" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B197" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="C197" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B198" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C198" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B199" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="C199" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B200" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="C200" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B201" t="s">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="C201" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B202" t="s">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="C202" t="s">
-        <v>501</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B203" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C203" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B204" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="C204" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B205" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C205" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B206" t="s">
-        <v>571</v>
+        <v>478</v>
       </c>
       <c r="C206" t="s">
-        <v>570</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B207" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C207" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B208" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C208" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B209" t="s">
-        <v>482</v>
+        <v>578</v>
       </c>
       <c r="C209" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B210" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="C210" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B211" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="C211" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B212" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="C212" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B213" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
       <c r="C213" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B214" t="s">
-        <v>533</v>
+        <v>487</v>
       </c>
       <c r="C214" t="s">
-        <v>534</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B215" t="s">
-        <v>539</v>
+        <v>475</v>
       </c>
       <c r="C215" t="s">
-        <v>540</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B216" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C216" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B217" t="s">
+        <v>478</v>
+      </c>
+      <c r="C217" t="s">
         <v>479</v>
-      </c>
-      <c r="C217" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B218" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C218" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B219" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C219" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B220" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C220" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B221" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="C221" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B222" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C222" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B223" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="C223" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B224" t="s">
-        <v>482</v>
+        <v>585</v>
       </c>
       <c r="C224" t="s">
-        <v>483</v>
+        <v>586</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B225" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C225" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B226" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="C226" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B227" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="C227" t="s">
-        <v>568</v>
+        <v>508</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B228" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="C228" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B229" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C229" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B230" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C230" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B231" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="C231" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B232" t="s">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="C232" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B233" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="C233" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B234" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="C234" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B235" t="s">
-        <v>482</v>
+        <v>595</v>
       </c>
       <c r="C235" t="s">
-        <v>483</v>
+        <v>596</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B236" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="C236" t="s">
-        <v>555</v>
+        <v>592</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B237" t="s">
-        <v>599</v>
+        <v>478</v>
       </c>
       <c r="C237" t="s">
-        <v>600</v>
+        <v>479</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B238" t="s">
-        <v>594</v>
+        <v>478</v>
       </c>
       <c r="C238" t="s">
-        <v>596</v>
+        <v>479</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B239" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C239" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B240" t="s">
-        <v>482</v>
+        <v>598</v>
       </c>
       <c r="C240" t="s">
-        <v>483</v>
+        <v>597</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B241" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C241" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B242" t="s">
-        <v>602</v>
+        <v>478</v>
       </c>
       <c r="C242" t="s">
-        <v>601</v>
+        <v>479</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B243" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
       <c r="C243" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B244" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C244" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B245" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="C245" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B246" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="C246" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B247" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="C247" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B248" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="C248" t="s">
-        <v>520</v>
+        <v>547</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="1" t="s">
-        <v>469</v>
+      <c r="A249" t="s">
+        <v>601</v>
       </c>
       <c r="B249" t="s">
-        <v>482</v>
+        <v>610</v>
       </c>
       <c r="C249" t="s">
-        <v>483</v>
+        <v>602</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="1" t="s">
-        <v>470</v>
+      <c r="A250" t="s">
+        <v>603</v>
       </c>
       <c r="B250" t="s">
-        <v>550</v>
+        <v>604</v>
       </c>
       <c r="C250" t="s">
-        <v>551</v>
+        <v>605</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B251" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C251" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -5611,54 +5599,54 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B253" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="C253" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B254" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C254" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
+        <v>618</v>
+      </c>
+      <c r="B255" t="s">
+        <v>619</v>
+      </c>
+      <c r="C255" t="s">
         <v>617</v>
-      </c>
-      <c r="B255" t="s">
-        <v>630</v>
-      </c>
-      <c r="C255" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B256" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C256" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B257" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C257" t="s">
         <v>625</v>
@@ -5666,79 +5654,57 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
+        <v>627</v>
+      </c>
+      <c r="B258" t="s">
         <v>628</v>
       </c>
-      <c r="B258" t="s">
-        <v>629</v>
-      </c>
       <c r="C258" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B259" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C259" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B260" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C260" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B261" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C261" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
+        <v>639</v>
+      </c>
+      <c r="B262" t="s">
+        <v>638</v>
+      </c>
+      <c r="C262" t="s">
         <v>640</v>
-      </c>
-      <c r="B262" t="s">
-        <v>642</v>
-      </c>
-      <c r="C262" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3">
-      <c r="A263" t="s">
-        <v>641</v>
-      </c>
-      <c r="B263" t="s">
-        <v>643</v>
-      </c>
-      <c r="C263" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" t="s">
-        <v>647</v>
-      </c>
-      <c r="B264" t="s">
-        <v>646</v>
-      </c>
-      <c r="C264" t="s">
-        <v>648</v>
       </c>
     </row>
   </sheetData>
